--- a/- DOCS -/COMPONENTS LIST/Reserve BOM.xlsx
+++ b/- DOCS -/COMPONENTS LIST/Reserve BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simak\OneDrive\Dokumenty\GitHub\RoboCop\- DOCS -\COMPONENTS LIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596094D9-4EE0-4C3F-B43F-63B44954B4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A1BFEE-CED7-4C3C-9926-AEACAC322678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{49D7D74D-18AC-488B-A0DE-D6822821B03E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49D7D74D-18AC-488B-A0DE-D6822821B03E}"/>
   </bookViews>
   <sheets>
     <sheet name="el. components - THD" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="167">
   <si>
     <t>NAME</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>ld33v</t>
-  </si>
-  <si>
-    <t>3v3 0,95a</t>
   </si>
   <si>
     <t>lm1085</t>
@@ -402,9 +399,6 @@
     <t>CRCW12060000ZSTC</t>
   </si>
   <si>
-    <t>15Ω</t>
-  </si>
-  <si>
     <t>AC1206JR-0715RL</t>
   </si>
   <si>
@@ -487,6 +481,174 @@
   </si>
   <si>
     <t>TSM2302CX RF</t>
+  </si>
+  <si>
+    <t>3v3 0,8a</t>
+  </si>
+  <si>
+    <t>5v 5a</t>
+  </si>
+  <si>
+    <t>mosfet</t>
+  </si>
+  <si>
+    <t>irf520</t>
+  </si>
+  <si>
+    <t>b3u-1000p</t>
+  </si>
+  <si>
+    <t>lm1084-3v3</t>
+  </si>
+  <si>
+    <t>tlustovrství rezistor</t>
+  </si>
+  <si>
+    <t>150Ω 0,25W 5%</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>tenkovrství rezistor</t>
+  </si>
+  <si>
+    <t>qre1113</t>
+  </si>
+  <si>
+    <t>esp32 s3 vrum2</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>tr1206brd07100rt</t>
+  </si>
+  <si>
+    <r>
+      <t>16v 0,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>µF</t>
+    </r>
+  </si>
+  <si>
+    <t>ac0805krx7r7bb104</t>
+  </si>
+  <si>
+    <t>cca 98</t>
+  </si>
+  <si>
+    <t>15r</t>
+  </si>
+  <si>
+    <t>erj-6red15r0v</t>
+  </si>
+  <si>
+    <t>650r</t>
+  </si>
+  <si>
+    <t>chpp0805afx-5600elf</t>
+  </si>
+  <si>
+    <t>h-bridge m</t>
+  </si>
+  <si>
+    <t>drv8874pwpr</t>
+  </si>
+  <si>
+    <t>vfhd1112h-3b72b-tr</t>
+  </si>
+  <si>
+    <t>vfhv1112h-3bz2b-tr</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>fy1112hh-tr</t>
+  </si>
+  <si>
+    <t>PicoBlade</t>
+  </si>
+  <si>
+    <t>6p. 1.25 F</t>
+  </si>
+  <si>
+    <t>53368-4006</t>
+  </si>
+  <si>
+    <t>3p. 1.25 F</t>
+  </si>
+  <si>
+    <t>53398-4003</t>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω 0,5W 1%</t>
+    </r>
+  </si>
+  <si>
+    <t>crcw0805100rfkeahp</t>
+  </si>
+  <si>
+    <t>10k .25w 1%</t>
+  </si>
+  <si>
+    <t>rcc080510k0fkea</t>
+  </si>
+  <si>
+    <r>
+      <t>16V 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>µF</t>
+    </r>
+  </si>
+  <si>
+    <t>50v 22nf</t>
+  </si>
+  <si>
+    <t>08055c223kat4a</t>
+  </si>
+  <si>
+    <t>PicoBlade - flat</t>
+  </si>
+  <si>
+    <t>4p. 1.25 F</t>
+  </si>
+  <si>
+    <t>53261-</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -798,14 +960,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,9 +992,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 –⁠ 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -870,7 +1032,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 –⁠ 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -976,7 +1138,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 –⁠ 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1118,7 +1280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1126,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42515726-14DD-4B98-B910-D2A515B29172}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,27 +1304,27 @@
     <col min="9" max="16384" width="28.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>120</v>
+      <c r="C2" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>0</v>
@@ -1180,7 +1342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1191,13 +1353,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1208,30 +1370,33 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1248,7 +1413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1259,13 +1424,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>21</v>
       </c>
@@ -1276,7 +1444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>16</v>
       </c>
@@ -1287,7 +1455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1295,7 +1463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1471,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>14</v>
       </c>
@@ -1313,10 +1481,13 @@
       <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
@@ -1324,8 +1495,11 @@
       <c r="E13" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>11</v>
       </c>
@@ -1335,8 +1509,11 @@
       <c r="E14" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>5</v>
       </c>
@@ -1346,8 +1523,11 @@
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>5</v>
       </c>
@@ -1357,8 +1537,11 @@
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>13</v>
       </c>
@@ -1366,10 +1549,10 @@
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1380,7 +1563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1388,13 +1571,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1405,7 +1588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>8</v>
       </c>
@@ -1413,10 +1596,10 @@
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <v>6</v>
       </c>
@@ -1424,7 +1607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>6</v>
       </c>
@@ -1432,7 +1615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -1441,20 +1624,23 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -1463,14 +1649,15 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -1479,17 +1666,29 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F930C73-0F49-4C5B-BB1A-1B51D92EBAE9}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,27 +1718,27 @@
     <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>120</v>
+      <c r="C2" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>0</v>
@@ -1557,567 +1756,888 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
-        <v>3</v>
+    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
       <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="10">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
       <c r="C5" s="10">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
       <c r="B6" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
       <c r="B7" s="10">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0</v>
       </c>
       <c r="B8" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" s="10">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F9" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>14</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" s="10">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
+      <c r="H11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
       <c r="B12" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10">
-        <v>8</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="10">
-        <v>4</v>
+      <c r="B15" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="H15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
       <c r="B16" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
       <c r="B17" s="10">
         <v>6</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>6</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
       <c r="B18" s="10">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>8</v>
-      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
       <c r="B19" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="10">
         <v>4</v>
-      </c>
-      <c r="B20" s="10">
-        <v>6</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>11</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
       <c r="B21" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="10">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
+      <c r="H22" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
       <c r="B23" s="10">
         <v>2</v>
       </c>
-      <c r="C23" s="10">
-        <v>1</v>
-      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
+      <c r="H23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
       <c r="B24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="10">
+        <v>16</v>
+      </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="10">
+        <v>18</v>
+      </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="10"/>
+      <c r="B27" s="10">
+        <v>10</v>
+      </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="10"/>
+      <c r="B28" s="10">
+        <v>6</v>
+      </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="10"/>
+      <c r="B29" s="10">
+        <v>12</v>
+      </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="10"/>
+      <c r="H29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="10">
+        <v>10</v>
+      </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="10">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="10"/>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>2</v>
+      </c>
+      <c r="B32" s="10">
+        <v>2</v>
+      </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="10">
+        <v>1</v>
+      </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="10"/>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2</v>
+      </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="3"/>
+      <c r="B36" s="10">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="10">
+        <v>10</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="10">
+        <v>18</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="10">
+        <v>8</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="10">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="10">
+        <v>4</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="10">
+        <v>2</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2131,7 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3644371-F4B4-47C9-A2E0-05B12AC541FA}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2146,16 +2666,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
@@ -2164,8 +2684,8 @@
       <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>120</v>
+      <c r="C2" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>0</v>
@@ -2191,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2213,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2224,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2235,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2249,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2293,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2304,10 +2824,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2318,7 +2838,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2352,7 +2872,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -2371,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
@@ -2382,10 +2902,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -2420,16 +2940,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -2438,8 +2958,8 @@
       <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>120</v>
+      <c r="C2" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>0</v>
@@ -2497,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +3033,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2527,16 +3047,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -2545,8 +3065,8 @@
       <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>120</v>
+      <c r="C2" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>0</v>
@@ -2585,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2593,17 +3113,17 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D8" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2611,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2619,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
